--- a/medicine/Handicap/Employment_and_Support_Allowance/Employment_and_Support_Allowance.xlsx
+++ b/medicine/Handicap/Employment_and_Support_Allowance/Employment_and_Support_Allowance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Employment and Support Allowance (ESA) est l'aide sociale au Royaume-Uni. Elle apporte un soutien financier aux personnes ayant des difficultés à trouver un emploi en raison d'une maladie de longue durée ou d'un handicap, afin de les aider à retourner au travail « malgré » leur condition.
 L'ESA est créée en 2008, en remplacement de trois autres aides, par le New Labour la coalition conservatrice-libérale démocrate du premier gouvernement Cameron a élargi son champ d'application.
-Le test utilisé pour évaluer l'admissibilité des personnes à l'ESA — le Work Capability Assessment (en) (WCA) — est vivement critiqué sur sa précision et la manière dont les évaluations sont réalisées[1].
+Le test utilisé pour évaluer l'admissibilité des personnes à l'ESA — le Work Capability Assessment (en) (WCA) — est vivement critiqué sur sa précision et la manière dont les évaluations sont réalisées.
 </t>
         </is>
       </c>
